--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fat4-Dchs1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fat4-Dchs1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Fat4</t>
+  </si>
+  <si>
+    <t>Dchs1</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fat4</t>
-  </si>
-  <si>
-    <t>Dchs1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.13105833333334</v>
+        <v>15.02072533333333</v>
       </c>
       <c r="H2">
-        <v>66.39317500000001</v>
+        <v>45.06217599999999</v>
       </c>
       <c r="I2">
-        <v>0.7283384536091189</v>
+        <v>0.6312879189185828</v>
       </c>
       <c r="J2">
-        <v>0.7432480947607982</v>
+        <v>0.6528476815761561</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.62309533333333</v>
+        <v>8.303153666666667</v>
       </c>
       <c r="N2">
-        <v>34.869286</v>
+        <v>24.909461</v>
       </c>
       <c r="O2">
-        <v>0.6137236594822451</v>
+        <v>0.5276082273969921</v>
       </c>
       <c r="P2">
-        <v>0.6196931423587276</v>
+        <v>0.5328680032152466</v>
       </c>
       <c r="Q2">
-        <v>257.2314008358945</v>
+        <v>124.7193906274595</v>
       </c>
       <c r="R2">
-        <v>2315.082607523051</v>
+        <v>1122.474515647136</v>
       </c>
       <c r="S2">
-        <v>0.4469985410906278</v>
+        <v>0.3330726998777696</v>
       </c>
       <c r="T2">
-        <v>0.4605857473944564</v>
+        <v>0.3478816404851895</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.13105833333334</v>
+        <v>15.02072533333333</v>
       </c>
       <c r="H3">
-        <v>66.39317500000001</v>
+        <v>45.06217599999999</v>
       </c>
       <c r="I3">
-        <v>0.7283384536091189</v>
+        <v>0.6312879189185828</v>
       </c>
       <c r="J3">
-        <v>0.7432480947607982</v>
+        <v>0.6528476815761561</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.561137666666666</v>
+        <v>6.561137666666667</v>
       </c>
       <c r="N3">
         <v>19.683413</v>
       </c>
       <c r="O3">
-        <v>0.34644174410283</v>
+        <v>0.4169151087634096</v>
       </c>
       <c r="P3">
-        <v>0.3498114660080688</v>
+        <v>0.4210713745179403</v>
       </c>
       <c r="Q3">
-        <v>145.2049204340306</v>
+        <v>98.55304676518755</v>
       </c>
       <c r="R3">
-        <v>1306.844283906275</v>
+        <v>886.9774208866879</v>
       </c>
       <c r="S3">
-        <v>0.2523268441655013</v>
+        <v>0.2631934713769675</v>
       </c>
       <c r="T3">
-        <v>0.2599967056359789</v>
+        <v>0.2748954706321227</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.13105833333334</v>
+        <v>15.02072533333333</v>
       </c>
       <c r="H4">
-        <v>66.39317500000001</v>
+        <v>45.06217599999999</v>
       </c>
       <c r="I4">
-        <v>0.7283384536091189</v>
+        <v>0.6312879189185828</v>
       </c>
       <c r="J4">
-        <v>0.7432480947607982</v>
+        <v>0.6528476815761561</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1161066666666666</v>
+        <v>0.116902</v>
       </c>
       <c r="N4">
-        <v>0.34832</v>
+        <v>0.350706</v>
       </c>
       <c r="O4">
-        <v>0.006130673999773197</v>
+        <v>0.007428316935380075</v>
       </c>
       <c r="P4">
-        <v>0.00619030499639115</v>
+        <v>0.007502370522413403</v>
       </c>
       <c r="Q4">
-        <v>2.569563412888889</v>
+        <v>1.755952832917333</v>
       </c>
       <c r="R4">
-        <v>23.126070716</v>
+        <v>15.803575496256</v>
       </c>
       <c r="S4">
-        <v>0.004465205620576442</v>
+        <v>0.004689406739203753</v>
       </c>
       <c r="T4">
-        <v>0.004600932394555972</v>
+        <v>0.004897905201882886</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.13105833333334</v>
+        <v>15.02072533333333</v>
       </c>
       <c r="H5">
-        <v>66.39317500000001</v>
+        <v>45.06217599999999</v>
       </c>
       <c r="I5">
-        <v>0.7283384536091189</v>
+        <v>0.6312879189185828</v>
       </c>
       <c r="J5">
-        <v>0.7432480947607982</v>
+        <v>0.6528476815761561</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5473060000000001</v>
+        <v>0.4660155</v>
       </c>
       <c r="N5">
-        <v>1.094612</v>
+        <v>0.9320310000000001</v>
       </c>
       <c r="O5">
-        <v>0.02889889754352208</v>
+        <v>0.02961207533489259</v>
       </c>
       <c r="P5">
-        <v>0.01945332491016798</v>
+        <v>0.01993818725763314</v>
       </c>
       <c r="Q5">
-        <v>12.11246101218334</v>
+        <v>6.999890826575999</v>
       </c>
       <c r="R5">
-        <v>72.67476607310003</v>
+        <v>41.999344959456</v>
       </c>
       <c r="S5">
-        <v>0.02104817834785724</v>
+        <v>0.01869374541302464</v>
       </c>
       <c r="T5">
-        <v>0.01445864667624513</v>
+        <v>0.01301659932597705</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.13105833333334</v>
+        <v>15.02072533333333</v>
       </c>
       <c r="H6">
-        <v>66.39317500000001</v>
+        <v>45.06217599999999</v>
       </c>
       <c r="I6">
-        <v>0.7283384536091189</v>
+        <v>0.6312879189185828</v>
       </c>
       <c r="J6">
-        <v>0.7432480947607982</v>
+        <v>0.6528476815761561</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.09100066666666667</v>
+        <v>0.290138</v>
       </c>
       <c r="N6">
-        <v>0.273002</v>
+        <v>0.870414</v>
       </c>
       <c r="O6">
-        <v>0.004805024871629773</v>
+        <v>0.01843627156932563</v>
       </c>
       <c r="P6">
-        <v>0.004851761726644399</v>
+        <v>0.01862006448676652</v>
       </c>
       <c r="Q6">
-        <v>2.013941062372223</v>
+        <v>4.358083206762666</v>
       </c>
       <c r="R6">
-        <v>18.12546956135001</v>
+        <v>39.22274886086399</v>
       </c>
       <c r="S6">
-        <v>0.003499684384556184</v>
+        <v>0.01163859551161741</v>
       </c>
       <c r="T6">
-        <v>0.00360606265956181</v>
+        <v>0.01215606593098404</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>19.166787</v>
       </c>
       <c r="I7">
-        <v>0.2102611903141454</v>
+        <v>0.2685125786554504</v>
       </c>
       <c r="J7">
-        <v>0.2145653965251102</v>
+        <v>0.2776828277492416</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.62309533333333</v>
+        <v>8.303153666666667</v>
       </c>
       <c r="N7">
-        <v>34.869286</v>
+        <v>24.909461</v>
       </c>
       <c r="O7">
-        <v>0.6137236594822451</v>
+        <v>0.5276082273969921</v>
       </c>
       <c r="P7">
-        <v>0.6196931423587276</v>
+        <v>0.5328680032152466</v>
       </c>
       <c r="Q7">
-        <v>74.259130844898</v>
+        <v>53.048259252423</v>
       </c>
       <c r="R7">
-        <v>668.3321776040821</v>
+        <v>477.434333271807</v>
       </c>
       <c r="S7">
-        <v>0.1290422671666901</v>
+        <v>0.1416694456581976</v>
       </c>
       <c r="T7">
-        <v>0.1329647048140919</v>
+        <v>0.1479682939499017</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>19.166787</v>
       </c>
       <c r="I8">
-        <v>0.2102611903141454</v>
+        <v>0.2685125786554504</v>
       </c>
       <c r="J8">
-        <v>0.2145653965251102</v>
+        <v>0.2776828277492416</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,16 +930,16 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.561137666666666</v>
+        <v>6.561137666666667</v>
       </c>
       <c r="N8">
         <v>19.683413</v>
       </c>
       <c r="O8">
-        <v>0.34644174410283</v>
+        <v>0.4169151087634096</v>
       </c>
       <c r="P8">
-        <v>0.3498114660080688</v>
+        <v>0.4210713745179403</v>
       </c>
       <c r="Q8">
         <v>41.918642711559</v>
@@ -948,10 +948,10 @@
         <v>377.267784404031</v>
       </c>
       <c r="S8">
-        <v>0.07284325348956959</v>
+        <v>0.1119469509344807</v>
       </c>
       <c r="T8">
-        <v>0.07505743591305138</v>
+        <v>0.1169242899604016</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>19.166787</v>
       </c>
       <c r="I9">
-        <v>0.2102611903141454</v>
+        <v>0.2685125786554504</v>
       </c>
       <c r="J9">
-        <v>0.2145653965251102</v>
+        <v>0.2776828277492416</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1161066666666666</v>
+        <v>0.116902</v>
       </c>
       <c r="N9">
-        <v>0.34832</v>
+        <v>0.350706</v>
       </c>
       <c r="O9">
-        <v>0.006130673999773197</v>
+        <v>0.007428316935380075</v>
       </c>
       <c r="P9">
-        <v>0.00619030499639115</v>
+        <v>0.007502370522413403</v>
       </c>
       <c r="Q9">
-        <v>0.7417972497599999</v>
+        <v>0.7468785779580001</v>
       </c>
       <c r="R9">
-        <v>6.676175247839999</v>
+        <v>6.721907201622</v>
       </c>
       <c r="S9">
-        <v>0.001289042812620295</v>
+        <v>0.001994596535388856</v>
       </c>
       <c r="T9">
-        <v>0.001328225246162038</v>
+        <v>0.002083279461486309</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>19.166787</v>
       </c>
       <c r="I10">
-        <v>0.2102611903141454</v>
+        <v>0.2685125786554504</v>
       </c>
       <c r="J10">
-        <v>0.2145653965251102</v>
+        <v>0.2776828277492416</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5473060000000001</v>
+        <v>0.4660155</v>
       </c>
       <c r="N10">
-        <v>1.094612</v>
+        <v>0.9320310000000001</v>
       </c>
       <c r="O10">
-        <v>0.02889889754352208</v>
+        <v>0.02961207533489259</v>
       </c>
       <c r="P10">
-        <v>0.01945332491016798</v>
+        <v>0.01993818725763314</v>
       </c>
       <c r="Q10">
-        <v>3.496699175274001</v>
+        <v>2.9773399423995</v>
       </c>
       <c r="R10">
-        <v>20.980195051644</v>
+        <v>17.864039654397</v>
       </c>
       <c r="S10">
-        <v>0.006076316596267484</v>
+        <v>0.007951214707511468</v>
       </c>
       <c r="T10">
-        <v>0.004174010373081996</v>
+        <v>0.005536492217893467</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,40 +1104,40 @@
         <v>19.166787</v>
       </c>
       <c r="I11">
-        <v>0.2102611903141454</v>
+        <v>0.2685125786554504</v>
       </c>
       <c r="J11">
-        <v>0.2145653965251102</v>
+        <v>0.2776828277492416</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.09100066666666667</v>
+        <v>0.290138</v>
       </c>
       <c r="N11">
-        <v>0.273002</v>
+        <v>0.870414</v>
       </c>
       <c r="O11">
-        <v>0.004805024871629773</v>
+        <v>0.01843627156932563</v>
       </c>
       <c r="P11">
-        <v>0.004851761726644399</v>
+        <v>0.01862006448676652</v>
       </c>
       <c r="Q11">
-        <v>0.5813967982860001</v>
+        <v>1.853671082202</v>
       </c>
       <c r="R11">
-        <v>5.232571184574001</v>
+        <v>16.683039739818</v>
       </c>
       <c r="S11">
-        <v>0.00101031024899795</v>
+        <v>0.00495037081987179</v>
       </c>
       <c r="T11">
-        <v>0.001041020178722809</v>
+        <v>0.00517047215955856</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.03321933333333334</v>
+        <v>0.02681433333333333</v>
       </c>
       <c r="H12">
-        <v>0.09965800000000001</v>
+        <v>0.080443</v>
       </c>
       <c r="I12">
-        <v>0.001093256251260428</v>
+        <v>0.001126947222024244</v>
       </c>
       <c r="J12">
-        <v>0.001115636036801548</v>
+        <v>0.001165434755060003</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.62309533333333</v>
+        <v>8.303153666666667</v>
       </c>
       <c r="N12">
-        <v>34.869286</v>
+        <v>24.909461</v>
       </c>
       <c r="O12">
-        <v>0.6137236594822451</v>
+        <v>0.5276082273969921</v>
       </c>
       <c r="P12">
-        <v>0.6196931423587276</v>
+        <v>0.5328680032152466</v>
       </c>
       <c r="Q12">
-        <v>0.3861114782431112</v>
+        <v>0.2226435301358889</v>
       </c>
       <c r="R12">
-        <v>3.475003304188001</v>
+        <v>2.003791771223</v>
       </c>
       <c r="S12">
-        <v>0.0006709572272753905</v>
+        <v>0.0005945866261821758</v>
       </c>
       <c r="T12">
-        <v>0.0006913520013741884</v>
+        <v>0.0006210228908064737</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.03321933333333334</v>
+        <v>0.02681433333333333</v>
       </c>
       <c r="H13">
-        <v>0.09965800000000001</v>
+        <v>0.080443</v>
       </c>
       <c r="I13">
-        <v>0.001093256251260428</v>
+        <v>0.001126947222024244</v>
       </c>
       <c r="J13">
-        <v>0.001115636036801548</v>
+        <v>0.001165434755060003</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.561137666666666</v>
+        <v>6.561137666666667</v>
       </c>
       <c r="N13">
         <v>19.683413</v>
       </c>
       <c r="O13">
-        <v>0.34644174410283</v>
+        <v>0.4169151087634096</v>
       </c>
       <c r="P13">
-        <v>0.3498114660080688</v>
+        <v>0.4210713745179403</v>
       </c>
       <c r="Q13">
-        <v>0.2179566191948889</v>
+        <v>0.1759325324398889</v>
       </c>
       <c r="R13">
-        <v>1.961609572754</v>
+        <v>1.583392791959</v>
       </c>
       <c r="S13">
-        <v>0.0003787496024379843</v>
+        <v>0.00046984132364086</v>
       </c>
       <c r="T13">
-        <v>0.0003902622775649813</v>
+        <v>0.0004907312142240944</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.03321933333333334</v>
+        <v>0.02681433333333333</v>
       </c>
       <c r="H14">
-        <v>0.09965800000000001</v>
+        <v>0.080443</v>
       </c>
       <c r="I14">
-        <v>0.001093256251260428</v>
+        <v>0.001126947222024244</v>
       </c>
       <c r="J14">
-        <v>0.001115636036801548</v>
+        <v>0.001165434755060003</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.1161066666666666</v>
+        <v>0.116902</v>
       </c>
       <c r="N14">
-        <v>0.34832</v>
+        <v>0.350706</v>
       </c>
       <c r="O14">
-        <v>0.006130673999773197</v>
+        <v>0.007428316935380075</v>
       </c>
       <c r="P14">
-        <v>0.00619030499639115</v>
+        <v>0.007502370522413403</v>
       </c>
       <c r="Q14">
-        <v>0.003856986062222222</v>
+        <v>0.003134649195333333</v>
       </c>
       <c r="R14">
-        <v>0.03471287456</v>
+        <v>0.028211842758</v>
       </c>
       <c r="S14">
-        <v>6.702397674691818E-06</v>
+        <v>8.371321134642221E-06</v>
       </c>
       <c r="T14">
-        <v>6.906127332766644E-06</v>
+        <v>8.743523352158249E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.03321933333333334</v>
+        <v>0.02681433333333333</v>
       </c>
       <c r="H15">
-        <v>0.09965800000000001</v>
+        <v>0.080443</v>
       </c>
       <c r="I15">
-        <v>0.001093256251260428</v>
+        <v>0.001126947222024244</v>
       </c>
       <c r="J15">
-        <v>0.001115636036801548</v>
+        <v>0.001165434755060003</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5473060000000001</v>
+        <v>0.4660155</v>
       </c>
       <c r="N15">
-        <v>1.094612</v>
+        <v>0.9320310000000001</v>
       </c>
       <c r="O15">
-        <v>0.02889889754352208</v>
+        <v>0.02961207533489259</v>
       </c>
       <c r="P15">
-        <v>0.01945332491016798</v>
+        <v>0.01993818725763314</v>
       </c>
       <c r="Q15">
-        <v>0.01818114044933334</v>
+        <v>0.0124958949555</v>
       </c>
       <c r="R15">
-        <v>0.109086842696</v>
+        <v>0.07497536973300001</v>
       </c>
       <c r="S15">
-        <v>3.159390039399013E-05</v>
+        <v>3.337124603702984E-05</v>
       </c>
       <c r="T15">
-        <v>2.170283030539264E-05</v>
+        <v>2.323665638294014E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,46 +1408,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.03321933333333334</v>
+        <v>0.02681433333333333</v>
       </c>
       <c r="H16">
-        <v>0.09965800000000001</v>
+        <v>0.080443</v>
       </c>
       <c r="I16">
-        <v>0.001093256251260428</v>
+        <v>0.001126947222024244</v>
       </c>
       <c r="J16">
-        <v>0.001115636036801548</v>
+        <v>0.001165434755060003</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.09100066666666667</v>
+        <v>0.290138</v>
       </c>
       <c r="N16">
-        <v>0.273002</v>
+        <v>0.870414</v>
       </c>
       <c r="O16">
-        <v>0.004805024871629773</v>
+        <v>0.01843627156932563</v>
       </c>
       <c r="P16">
-        <v>0.004851761726644399</v>
+        <v>0.01862006448676652</v>
       </c>
       <c r="Q16">
-        <v>0.003022981479555556</v>
+        <v>0.007779857044666666</v>
       </c>
       <c r="R16">
-        <v>0.027206833316</v>
+        <v>0.070018713402</v>
       </c>
       <c r="S16">
-        <v>5.253123478371084E-06</v>
+        <v>2.077670502953606E-05</v>
       </c>
       <c r="T16">
-        <v>5.412800224218993E-06</v>
+        <v>2.17004702943362E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.8286205</v>
+        <v>2.3573105</v>
       </c>
       <c r="H17">
-        <v>3.657241</v>
+        <v>4.714621</v>
       </c>
       <c r="I17">
-        <v>0.06018034054891636</v>
+        <v>0.09907255520394249</v>
       </c>
       <c r="J17">
-        <v>0.04094151854209526</v>
+        <v>0.06830405591954235</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.62309533333333</v>
+        <v>8.303153666666667</v>
       </c>
       <c r="N17">
-        <v>34.869286</v>
+        <v>24.909461</v>
       </c>
       <c r="O17">
-        <v>0.6137236594822451</v>
+        <v>0.5276082273969921</v>
       </c>
       <c r="P17">
-        <v>0.6196931423587276</v>
+        <v>0.5328680032152466</v>
       </c>
       <c r="Q17">
-        <v>21.25423039998767</v>
+        <v>19.57311132154683</v>
       </c>
       <c r="R17">
-        <v>127.525382399926</v>
+        <v>117.438667929281</v>
       </c>
       <c r="S17">
-        <v>0.03693409883056869</v>
+        <v>0.05227149523484274</v>
       </c>
       <c r="T17">
-        <v>0.02537117827828913</v>
+        <v>0.03639704588934908</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.8286205</v>
+        <v>2.3573105</v>
       </c>
       <c r="H18">
-        <v>3.657241</v>
+        <v>4.714621</v>
       </c>
       <c r="I18">
-        <v>0.06018034054891636</v>
+        <v>0.09907255520394249</v>
       </c>
       <c r="J18">
-        <v>0.04094151854209526</v>
+        <v>0.06830405591954235</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.561137666666666</v>
+        <v>6.561137666666667</v>
       </c>
       <c r="N18">
         <v>19.683413</v>
       </c>
       <c r="O18">
-        <v>0.34644174410283</v>
+        <v>0.4169151087634096</v>
       </c>
       <c r="P18">
-        <v>0.3498114660080688</v>
+        <v>0.4210713745179403</v>
       </c>
       <c r="Q18">
-        <v>11.99783084058883</v>
+        <v>15.46663871357883</v>
       </c>
       <c r="R18">
-        <v>71.986985043533</v>
+        <v>92.79983228147302</v>
       </c>
       <c r="S18">
-        <v>0.02084898214046885</v>
+        <v>0.04130484512832059</v>
       </c>
       <c r="T18">
-        <v>0.01432181262180687</v>
+        <v>0.02876088271119195</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.8286205</v>
+        <v>2.3573105</v>
       </c>
       <c r="H19">
-        <v>3.657241</v>
+        <v>4.714621</v>
       </c>
       <c r="I19">
-        <v>0.06018034054891636</v>
+        <v>0.09907255520394249</v>
       </c>
       <c r="J19">
-        <v>0.04094151854209526</v>
+        <v>0.06830405591954235</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,28 +1612,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.1161066666666666</v>
+        <v>0.116902</v>
       </c>
       <c r="N19">
-        <v>0.34832</v>
+        <v>0.350706</v>
       </c>
       <c r="O19">
-        <v>0.006130673999773197</v>
+        <v>0.007428316935380075</v>
       </c>
       <c r="P19">
-        <v>0.00619030499639115</v>
+        <v>0.007502370522413403</v>
       </c>
       <c r="Q19">
-        <v>0.2123150308533333</v>
+        <v>0.275574312071</v>
       </c>
       <c r="R19">
-        <v>1.27389018512</v>
+        <v>1.653445872426</v>
       </c>
       <c r="S19">
-        <v>0.0003689460491007382</v>
+        <v>0.0007359423396528234</v>
       </c>
       <c r="T19">
-        <v>0.0002534404867909732</v>
+        <v>0.0005124423356920512</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.8286205</v>
+        <v>2.3573105</v>
       </c>
       <c r="H20">
-        <v>3.657241</v>
+        <v>4.714621</v>
       </c>
       <c r="I20">
-        <v>0.06018034054891636</v>
+        <v>0.09907255520394249</v>
       </c>
       <c r="J20">
-        <v>0.04094151854209526</v>
+        <v>0.06830405591954235</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.5473060000000001</v>
+        <v>0.4660155</v>
       </c>
       <c r="N20">
-        <v>1.094612</v>
+        <v>0.9320310000000001</v>
       </c>
       <c r="O20">
-        <v>0.02889889754352208</v>
+        <v>0.02961207533489259</v>
       </c>
       <c r="P20">
-        <v>0.01945332491016798</v>
+        <v>0.01993818725763314</v>
       </c>
       <c r="Q20">
-        <v>1.000814971373</v>
+        <v>1.09854323131275</v>
       </c>
       <c r="R20">
-        <v>4.003259885492001</v>
+        <v>4.394172925251</v>
       </c>
       <c r="S20">
-        <v>0.001739145495657401</v>
+        <v>0.00293374396831945</v>
       </c>
       <c r="T20">
-        <v>0.000796448662515046</v>
+        <v>0.00136185905737968</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,13 +1703,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1718,356 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.8286205</v>
+        <v>2.3573105</v>
       </c>
       <c r="H21">
-        <v>3.657241</v>
+        <v>4.714621</v>
       </c>
       <c r="I21">
-        <v>0.06018034054891636</v>
+        <v>0.09907255520394249</v>
       </c>
       <c r="J21">
-        <v>0.04094151854209526</v>
+        <v>0.06830405591954235</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.09100066666666667</v>
+        <v>0.290138</v>
       </c>
       <c r="N21">
-        <v>0.273002</v>
+        <v>0.870414</v>
       </c>
       <c r="O21">
-        <v>0.004805024871629773</v>
+        <v>0.01843627156932563</v>
       </c>
       <c r="P21">
-        <v>0.004851761726644399</v>
+        <v>0.01862006448676652</v>
       </c>
       <c r="Q21">
-        <v>0.1664056845803333</v>
+        <v>0.683945353849</v>
       </c>
       <c r="R21">
-        <v>0.9984341074820001</v>
+        <v>4.103672123094</v>
       </c>
       <c r="S21">
-        <v>0.0002891680331206929</v>
+        <v>0.001826528532806888</v>
       </c>
       <c r="T21">
-        <v>0.0001986384926932398</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.003851666666666666</v>
-      </c>
-      <c r="H22">
-        <v>0.011555</v>
-      </c>
-      <c r="I22">
-        <v>0.0001267592765589741</v>
-      </c>
-      <c r="J22">
-        <v>0.000129354135194785</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>11.62309533333333</v>
-      </c>
-      <c r="N22">
-        <v>34.869286</v>
-      </c>
-      <c r="O22">
-        <v>0.6137236594822451</v>
-      </c>
-      <c r="P22">
-        <v>0.6196931423587276</v>
-      </c>
-      <c r="Q22">
-        <v>0.04476828885888889</v>
-      </c>
-      <c r="R22">
-        <v>0.40291459973</v>
-      </c>
-      <c r="S22">
-        <v>7.779516708309555E-05</v>
-      </c>
-      <c r="T22">
-        <v>8.015987051595201E-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.003851666666666666</v>
-      </c>
-      <c r="H23">
-        <v>0.011555</v>
-      </c>
-      <c r="I23">
-        <v>0.0001267592765589741</v>
-      </c>
-      <c r="J23">
-        <v>0.000129354135194785</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>6.561137666666666</v>
-      </c>
-      <c r="N23">
-        <v>19.683413</v>
-      </c>
-      <c r="O23">
-        <v>0.34644174410283</v>
-      </c>
-      <c r="P23">
-        <v>0.3498114660080688</v>
-      </c>
-      <c r="Q23">
-        <v>0.02527131524611111</v>
-      </c>
-      <c r="R23">
-        <v>0.227441837215</v>
-      </c>
-      <c r="S23">
-        <v>4.391470485230396E-05</v>
-      </c>
-      <c r="T23">
-        <v>4.524955966669367E-05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.003851666666666666</v>
-      </c>
-      <c r="H24">
-        <v>0.011555</v>
-      </c>
-      <c r="I24">
-        <v>0.0001267592765589741</v>
-      </c>
-      <c r="J24">
-        <v>0.000129354135194785</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M24">
-        <v>0.1161066666666666</v>
-      </c>
-      <c r="N24">
-        <v>0.34832</v>
-      </c>
-      <c r="O24">
-        <v>0.006130673999773197</v>
-      </c>
-      <c r="P24">
-        <v>0.00619030499639115</v>
-      </c>
-      <c r="Q24">
-        <v>0.0004472041777777777</v>
-      </c>
-      <c r="R24">
-        <v>0.004024837599999999</v>
-      </c>
-      <c r="S24">
-        <v>7.771198010301626E-07</v>
-      </c>
-      <c r="T24">
-        <v>8.007415494001339E-07</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.003851666666666666</v>
-      </c>
-      <c r="H25">
-        <v>0.011555</v>
-      </c>
-      <c r="I25">
-        <v>0.0001267592765589741</v>
-      </c>
-      <c r="J25">
-        <v>0.000129354135194785</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.5473060000000001</v>
-      </c>
-      <c r="N25">
-        <v>1.094612</v>
-      </c>
-      <c r="O25">
-        <v>0.02889889754352208</v>
-      </c>
-      <c r="P25">
-        <v>0.01945332491016798</v>
-      </c>
-      <c r="Q25">
-        <v>0.002108040276666667</v>
-      </c>
-      <c r="R25">
-        <v>0.01264824166</v>
-      </c>
-      <c r="S25">
-        <v>3.663203345968773E-06</v>
-      </c>
-      <c r="T25">
-        <v>2.516368020417948E-06</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.003851666666666666</v>
-      </c>
-      <c r="H26">
-        <v>0.011555</v>
-      </c>
-      <c r="I26">
-        <v>0.0001267592765589741</v>
-      </c>
-      <c r="J26">
-        <v>0.000129354135194785</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.09100066666666667</v>
-      </c>
-      <c r="N26">
-        <v>0.273002</v>
-      </c>
-      <c r="O26">
-        <v>0.004805024871629773</v>
-      </c>
-      <c r="P26">
-        <v>0.004851761726644399</v>
-      </c>
-      <c r="Q26">
-        <v>0.0003505042344444445</v>
-      </c>
-      <c r="R26">
-        <v>0.00315453811</v>
-      </c>
-      <c r="S26">
-        <v>6.090814765756675E-07</v>
-      </c>
-      <c r="T26">
-        <v>6.275954423212431E-07</v>
+        <v>0.001271825925929585</v>
       </c>
     </row>
   </sheetData>
